--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msharma13\eclipse-workspace\uiFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="4635" windowWidth="15345" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="TestScripts" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" r:id="rId1" sheetId="1"/>
+    <sheet name="TestScripts" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>TestCase</t>
   </si>
@@ -118,6 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,29 +287,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -325,10 +326,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -363,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,21 +493,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -523,7 +524,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -575,14 +576,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -591,10 +592,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -696,12 +697,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -710,7 +711,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -746,6 +747,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>